--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_2_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_2_square_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001994797372990242</v>
+        <v>0.4146249694772157</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001994797372990242</v>
+        <v>0.4146249694772157</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>42.15299525045572</v>
+        <v>17.82274946832048</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.799685878691037, 68.5063046222204]</t>
+          <t>[-18.746007025227623, 54.39150596186859]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002370811036265685</v>
+        <v>0.3315322716113123</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002370811036265685</v>
+        <v>0.3315322716113123</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 2.4088688414912722]</t>
+          <t>[-2.251631971942235, 4.025263860455391]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0003943357654259128</v>
+        <v>0.5721076975701003</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0003943357654259128</v>
+        <v>0.5721076975701003</v>
       </c>
       <c r="T2" t="n">
-        <v>64.6968237042705</v>
+        <v>51.39442937319455</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.4973761529088, 80.8962712556322]</t>
+          <t>[32.54625053643335, 70.24260820995576]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.97616598032846e-10</v>
+        <v>1.760637233561013e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.97616598032846e-10</v>
+        <v>1.760637233561013e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>18.77861861861898</v>
+        <v>21.63465465465508</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.46474474474504</v>
+        <v>9.052262262262438</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.09249249249292</v>
+        <v>34.21704704704773</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002944724726513526</v>
+        <v>8.104560027200058e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002944724726513526</v>
+        <v>8.104560027200058e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.30609435191687</v>
+        <v>60.38490605963405</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[23.837344974254435, 78.7748437295793]</t>
+          <t>[32.95809110362387, 87.81172101564424]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0004850042959461121</v>
+        <v>5.884269294775812e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004850042959461121</v>
+        <v>5.884269294775812e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.691868716347656</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0251843894597323, 2.35855304323558]</t>
+          <t>[1.327079178993885, 2.383710942363426]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.345516764705295e-06</v>
+        <v>7.933527168546561e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>6.345516764705295e-06</v>
+        <v>7.933527168546561e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>69.22909319971902</v>
+        <v>71.85820907670239</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.33182086640082, 86.12636553303722]</t>
+          <t>[55.9477766267168, 87.76864152668799]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.486211154144712e-10</v>
+        <v>9.262368649842756e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.486211154144712e-10</v>
+        <v>9.262368649842756e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>18.32672672672708</v>
+        <v>17.75151151151186</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.66558558558589</v>
+        <v>15.63343343343374</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.98786786786827</v>
+        <v>19.86958958958999</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01606704087266697</v>
+        <v>0.003015369834116433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01606704087266697</v>
+        <v>0.003015369834116433</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>32.49187057844957</v>
+        <v>46.95104605748909</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[3.06116631385715, 61.92257484304199]</t>
+          <t>[13.54589800067889, 80.3561941142993]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.03123942742983066</v>
+        <v>0.006916604739361842</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03123942742983066</v>
+        <v>0.006916604739361842</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7736053981812709</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.006289474781962845, 1.540921321580579]</t>
+          <t>[0.44655270951926873, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04822856504745832</v>
+        <v>0.003357242070449962</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04822856504745832</v>
+        <v>0.003357242070449962</v>
       </c>
       <c r="T4" t="n">
-        <v>56.95068895739136</v>
+        <v>67.12865244331043</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.72934241365988, 72.17203550112285]</t>
+          <t>[48.49818261804751, 85.75912226857335]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.647087355394206e-09</v>
+        <v>4.241173190422387e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.647087355394206e-09</v>
+        <v>4.241173190422387e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>21.99207207207249</v>
+        <v>20.07131131131171</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.92924924924962</v>
+        <v>16.74290290290323</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.05489489489537</v>
+        <v>23.39971971972019</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000105807633669297</v>
+        <v>1.757202358065868e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000105807633669297</v>
+        <v>1.757202358065868e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.74554434509573</v>
+        <v>56.36302923896298</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.405223433485276, 78.08586525670619]</t>
+          <t>[34.0475847010386, 78.67847377688736]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0009564255856842063</v>
+        <v>6.879386763802842e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009564255856842063</v>
+        <v>6.879386763802842e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.025184389459732</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.4339737599553475, 1.6163950189641172]</t>
+          <t>[0.710710650361654, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001085018016485639</v>
+        <v>1.945440488926309e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001085018016485639</v>
+        <v>1.945440488926309e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>67.83280437159863</v>
+        <v>53.8219231233485</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[52.88769828272464, 82.77791046047261]</t>
+          <t>[41.74961865100336, 65.89422759569365]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.004485962942454e-12</v>
+        <v>1.354583112345153e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>8.004485962942454e-12</v>
+        <v>1.354583112345153e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>20.98786786786827</v>
+        <v>20.67647647647689</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.62798798798835</v>
+        <v>19.01227227227265</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.34774774774819</v>
+        <v>22.34068068068113</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002441293265915689</v>
+        <v>0.0002395113255240222</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002441293265915689</v>
+        <v>0.0002395113255240222</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.58126337335015</v>
+        <v>45.70574846659403</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.04572856753812, 90.11679817916217]</t>
+          <t>[20.463472971194975, 70.94802396199309]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.00224110390208998</v>
+        <v>0.0006862033827381708</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00224110390208998</v>
+        <v>0.0006862033827381708</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6226580034141938</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.04402632347373192, 1.2012896833546556]</t>
+          <t>[-0.2830263651882685, 0.9748685912040393]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0355386307284733</v>
+        <v>0.2738528922746424</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0355386307284733</v>
+        <v>0.2738528922746424</v>
       </c>
       <c r="T6" t="n">
-        <v>74.81681715587001</v>
+        <v>61.78061893473097</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[57.44595311494835, 92.18768119679167]</t>
+          <t>[47.64195838042082, 75.91927948904113]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.668865211636785e-11</v>
+        <v>2.42630360247631e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.668865211636785e-11</v>
+        <v>2.42630360247631e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>22.59459459459503</v>
+        <v>23.80316316316363</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.28492492492531</v>
+        <v>21.28164164164206</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.90426426426474</v>
+        <v>26.3246846846852</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003422591179922496</v>
+        <v>0.01372822864456424</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003422591179922496</v>
+        <v>0.01372822864456424</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.20779598494059</v>
+        <v>40.17297122491652</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[16.06914341627082, 84.34644855361036]</t>
+          <t>[5.3612126429105444, 74.98472980692249]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004865519735658186</v>
+        <v>0.02468257573116173</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004865519735658186</v>
+        <v>0.02468257573116173</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3459211130078854</v>
+        <v>0.761026448617347</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.4339737599553466, 1.1258159859711174]</t>
+          <t>[0.006289474781961069, 1.515763422452733]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3764214509951793</v>
+        <v>0.0481995086708773</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3764214509951793</v>
+        <v>0.0481995086708773</v>
       </c>
       <c r="T7" t="n">
-        <v>86.3348368910018</v>
+        <v>68.21346018143863</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[66.8822580404418, 105.7874157415618]</t>
+          <t>[49.812368076018615, 86.61455228685865]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.545230610133785e-11</v>
+        <v>2.083882622017086e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.545230610133785e-11</v>
+        <v>2.083882622017086e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>23.69921921921967</v>
+        <v>22.1389589589594</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.58618618618658</v>
+        <v>19.11313313313351</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.81225225225277</v>
+        <v>25.16478478478529</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.08000000000048</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01038593364409623</v>
+        <v>3.390835475514109e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01038593364409623</v>
+        <v>3.390835475514109e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>38.1972880035082</v>
+        <v>60.544723012738</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[9.926041166834523, 66.46853484018187]</t>
+          <t>[33.48878594680572, 87.60066007867029]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.009214877072487804</v>
+        <v>4.652044630204522e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009214877072487804</v>
+        <v>4.652044630204522e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.08805264694746207</v>
+        <v>-0.06289474781961513</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.0629212381515023, 0.8868159442565782]</t>
+          <t>[-0.6163685286322318, 0.49057903299300154]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8564632962627923</v>
+        <v>0.8200027721842473</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8564632962627923</v>
+        <v>0.8200027721842473</v>
       </c>
       <c r="T8" t="n">
-        <v>60.121394087735</v>
+        <v>70.34010198734605</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.35765768939549, 76.8851304860745]</t>
+          <t>[53.823748667592355, 86.85645530709974]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.75782657716195e-09</v>
+        <v>5.050648788085255e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>4.75782657716195e-09</v>
+        <v>5.050648788085255e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3514714714714771</v>
+        <v>0.2521521521521564</v>
       </c>
       <c r="Y8" t="n">
-        <v>-3.53981981981989</v>
+        <v>-1.966786786786829</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.242762762762844</v>
+        <v>2.471091091091141</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.217053477675645e-05</v>
+        <v>0.005113176145942644</v>
       </c>
       <c r="I9" t="n">
-        <v>1.217053477675645e-05</v>
+        <v>0.005113176145942644</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54.77563239059239</v>
+        <v>42.01804633859736</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.513010801181636, 79.03825398000315]</t>
+          <t>[13.013081182515904, 71.02301149467881]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.085925844887761e-05</v>
+        <v>0.005485403458904692</v>
       </c>
       <c r="O9" t="n">
-        <v>4.085925844887761e-05</v>
+        <v>0.005485403458904692</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1257894956392311</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6415264277600778, 0.38994743648161556]</t>
+          <t>[-0.9497106920761942, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6256408294446039</v>
+        <v>0.9893461967252557</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6256408294446039</v>
+        <v>0.9893461967252557</v>
       </c>
       <c r="T9" t="n">
-        <v>70.45642322149629</v>
+        <v>60.07968942501638</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[55.8185501137293, 85.09429632926329]</t>
+          <t>[42.39384575135132, 77.76553309868143]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.362021606610142e-12</v>
+        <v>1.748364364395627e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.362021606610142e-12</v>
+        <v>1.748364364395627e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4626626626626695</v>
+        <v>0.02305305305305438</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1.434254254254261</v>
+        <v>-3.434904904904928</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.3595795795796</v>
+        <v>3.481011011011037</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001773994616049102</v>
+        <v>0.00273958673833874</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001773994616049102</v>
+        <v>0.00273958673833874</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.17103770849219</v>
+        <v>39.57930227497647</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[19.727330198690467, 80.61474521829392]</t>
+          <t>[13.028414023389743, 66.1301905265632]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001795164894381251</v>
+        <v>0.004360704400707016</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001795164894381251</v>
+        <v>0.004360704400707016</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06918422260157708</v>
+        <v>-0.1006315965113851</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.77360539818127, 0.9119738433844242]</t>
+          <t>[-0.9748685912040402, 0.77360539818127]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8694194016147354</v>
+        <v>0.8177139491211576</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8694194016147354</v>
+        <v>0.8177139491211576</v>
       </c>
       <c r="T10" t="n">
-        <v>73.26102701362842</v>
+        <v>58.63374618618094</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[54.25153491652243, 92.27051911073441]</t>
+          <t>[42.98852568436061, 74.27896668800128]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.665326151595764e-10</v>
+        <v>1.578812636182647e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>7.665326151595764e-10</v>
+        <v>1.578812636182647e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>22.85553553553571</v>
+        <v>0.3688488488488559</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.75569569569585</v>
+        <v>-2.835525525525541</v>
       </c>
       <c r="Z10" t="n">
-        <v>25.95537537537557</v>
+        <v>3.573223223223253</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002942183904819373</v>
+        <v>0.002092995604887182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002942183904819373</v>
+        <v>0.002092995604887182</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>51.43998647125331</v>
+        <v>49.85618674659929</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[21.371126915049246, 81.50884602745737]</t>
+          <t>[13.01827539729922, 86.69409809589936]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.00124498934201478</v>
+        <v>0.009105247911430192</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00124498934201478</v>
+        <v>0.009105247911430192</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2578684660604234</v>
+        <v>0.5597632555945768</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.3962369112635775, 0.9119738433844242]</t>
+          <t>[-0.1446579199851179, 1.2641844311742716]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.4313503236589225</v>
+        <v>0.1164873415062786</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4313503236589225</v>
+        <v>0.1164873415062786</v>
       </c>
       <c r="T11" t="n">
-        <v>70.22982512571373</v>
+        <v>66.45526671894621</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.4426979917947, 87.01695225963276]</t>
+          <t>[47.490333355051945, 85.42020008284047]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.334510859242528e-11</v>
+        <v>8.3698832309409e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>8.334510859242528e-11</v>
+        <v>8.3698832309409e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>22.16154154154171</v>
+        <v>20.97827827827843</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.75569569569585</v>
+        <v>18.39633633633646</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.56738738738757</v>
+        <v>23.56022022022039</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0560757967332407</v>
+        <v>7.938032116183713e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0560757967332407</v>
+        <v>7.938032116183713e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>31.93868562873039</v>
+        <v>63.39292191509194</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-3.0831859922562295, 66.960557249717]</t>
+          <t>[33.271509215707, 93.51433461447688]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07285111924663434</v>
+        <v>0.0001100540955591978</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07285111924663434</v>
+        <v>0.0001100540955591978</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3710790121357315</v>
+        <v>1.10065808684327</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, 2.0252108797916186]</t>
+          <t>[0.5975001042863477, 1.6038160694001933]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6535596078763883</v>
+        <v>6.451098680626544e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6535596078763883</v>
+        <v>6.451098680626544e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>72.0069895024602</v>
+        <v>63.1095702122918</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[53.44346032955796, 90.57051867536245]</t>
+          <t>[47.06707939494248, 79.15206102964112]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.468252600200231e-10</v>
+        <v>4.458611257973644e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>6.468252600200231e-10</v>
+        <v>4.458611257973644e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>21.74514514514531</v>
+        <v>18.99571571571585</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.66113113113125</v>
+        <v>17.1514714714716</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.82915915915937</v>
+        <v>20.8399599599601</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001574026776995918</v>
+        <v>0.0001644482084868226</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001574026776995918</v>
+        <v>0.0001644482084868226</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>64.21004599331542</v>
+        <v>52.35891723489701</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[25.126360893830054, 103.29373109280078]</t>
+          <t>[20.859409851788598, 83.85842461800543]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.00184891727660208</v>
+        <v>0.001653218682322155</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00184891727660208</v>
+        <v>0.001653218682322155</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7736053981812701</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 1.3145002294299628]</t>
+          <t>[0.2704474156243464, 1.3270791789938876]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.006058774772514042</v>
+        <v>0.003879089212194708</v>
       </c>
       <c r="S13" t="n">
-        <v>0.006058774772514042</v>
+        <v>0.003879089212194708</v>
       </c>
       <c r="T13" t="n">
-        <v>80.57043874848631</v>
+        <v>71.47000319879676</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[60.82210351253005, 100.31877398444257]</t>
+          <t>[55.36147189058266, 87.57853450701086]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.667916915693013e-10</v>
+        <v>1.55990775851933e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>1.667916915693013e-10</v>
+        <v>1.55990775851933e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>20.26462462462478</v>
+        <v>20.1022622622624</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.27517517517532</v>
+        <v>18.16580580580593</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.25407407407424</v>
+        <v>22.03871871871887</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001553080117452366</v>
+        <v>0.005958241113424134</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001553080117452366</v>
+        <v>0.005958241113424134</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>54.54786004572559</v>
+        <v>40.40401807887242</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[23.760173066708887, 85.33554702474228]</t>
+          <t>[10.187193580642486, 70.62084257710235]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0008670273422370922</v>
+        <v>0.009909126003685653</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0008670273422370922</v>
+        <v>0.009909126003685653</v>
       </c>
       <c r="P14" t="n">
-        <v>1.17613178422681</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 1.7673424137311953]</t>
+          <t>[0.39623691126357663, 2.0315003545735806]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0002283986885491807</v>
+        <v>0.004508791041906823</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0002283986885491807</v>
+        <v>0.004508791041906823</v>
       </c>
       <c r="T14" t="n">
-        <v>62.72630262044304</v>
+        <v>60.69545425502734</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.18009402187386, 79.27251121901222]</t>
+          <t>[44.00237401271508, 77.3885344973396]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.175771924266655e-09</v>
+        <v>3.387763847229053e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.175771924266655e-09</v>
+        <v>3.387763847229053e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>18.78410410410424</v>
+        <v>18.58076076076089</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.60958958958971</v>
+        <v>15.58386386386397</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.95861861861878</v>
+        <v>21.57765765765781</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001746612730689767</v>
+        <v>0.001057764007588169</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001746612730689767</v>
+        <v>0.001057764007588169</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>58.17648484843203</v>
+        <v>48.12242628883713</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[25.765875406598212, 90.58709429026585]</t>
+          <t>[20.285463842440194, 75.95938873523407]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0007542661340065315</v>
+        <v>0.001119699777549554</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0007542661340065315</v>
+        <v>0.001119699777549554</v>
       </c>
       <c r="P15" t="n">
-        <v>1.239026532046425</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.8553950606786564]</t>
+          <t>[0.8490790955648082, 2.358553043235582]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0002003636558844946</v>
+        <v>9.655104085326549e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0002003636558844946</v>
+        <v>9.655104085326549e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>69.3788343295808</v>
+        <v>65.67448013514081</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[51.60903796729984, 87.14863069186175]</t>
+          <t>[48.87692241511013, 82.4720378551715]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.446949558063352e-10</v>
+        <v>5.249571888299442e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>5.446949558063352e-10</v>
+        <v>5.249571888299442e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>18.55277277277291</v>
+        <v>17.15147147147159</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.28572572572585</v>
+        <v>14.3851051051052</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.81981981981998</v>
+        <v>19.91783783783798</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.11000000000017</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02197178447346992</v>
+        <v>0.03308104246331245</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02197178447346992</v>
+        <v>0.03308104246331245</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>32.88823479993094</v>
+        <v>31.06696496480972</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[5.453248339827539, 60.323221260034344]</t>
+          <t>[2.1383153367736156, 59.995614592845826]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.01988746034693367</v>
+        <v>0.03589360906737094</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01988746034693367</v>
+        <v>0.03589360906737094</v>
       </c>
       <c r="P16" t="n">
-        <v>1.515763422452733</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 2.6352899336418885]</t>
+          <t>[0.4968685077749626, 3.1887637144545042]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.009079647618210673</v>
+        <v>0.008383539122228001</v>
       </c>
       <c r="S16" t="n">
-        <v>0.009079647618210673</v>
+        <v>0.008383539122228001</v>
       </c>
       <c r="T16" t="n">
-        <v>56.21221535495071</v>
+        <v>57.33576729033228</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[40.28575560907674, 72.13867510082468]</t>
+          <t>[41.26160938020128, 73.40992520046328]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>7.030988902201329e-09</v>
+        <v>5.436541217207491e-09</v>
       </c>
       <c r="W16" t="n">
-        <v>7.030988902201329e-09</v>
+        <v>5.436541217207491e-09</v>
       </c>
       <c r="X16" t="n">
-        <v>17.53491491491505</v>
+        <v>16.27545545545557</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.41721721721732</v>
+        <v>11.34210210210219</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.65261261261278</v>
+        <v>21.20880880880896</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_2_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_2_square_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4146249694772157</v>
+        <v>0.0005421230923827736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4146249694772157</v>
+        <v>0.0005421230923827736</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>17.82274946832048</v>
+        <v>47.67818542561737</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-18.746007025227623, 54.39150596186859]</t>
+          <t>[19.27422952343106, 76.08214132780368]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3315322716113123</v>
+        <v>0.001503101699094289</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3315322716113123</v>
+        <v>0.001503101699094289</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8868159442565782</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.251631971942235, 4.025263860455391]</t>
+          <t>[0.6729738016698867, 2.132131951084965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.5721076975701003</v>
+        <v>0.0003465994108249326</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5721076975701003</v>
+        <v>0.0003465994108249326</v>
       </c>
       <c r="T2" t="n">
-        <v>51.39442937319455</v>
+        <v>61.56136356090915</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[32.54625053643335, 70.24260820995576]</t>
+          <t>[45.25420681905611, 77.86852030276219]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.760637233561013e-06</v>
+        <v>1.309878205901782e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.760637233561013e-06</v>
+        <v>1.309878205901782e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>21.63465465465508</v>
+        <v>19.33397397397432</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.052262262262438</v>
+        <v>16.44384384384414</v>
       </c>
       <c r="Z2" t="n">
-        <v>34.21704704704773</v>
+        <v>22.22410410410451</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.104560027200058e-06</v>
+        <v>0.001131672377268744</v>
       </c>
       <c r="I3" t="n">
-        <v>8.104560027200058e-06</v>
+        <v>0.001131672377268744</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.38490605963405</v>
+        <v>45.70934171691169</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[32.95809110362387, 87.81172101564424]</t>
+          <t>[15.747655191747825, 75.67102824207555]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.884269294775812e-05</v>
+        <v>0.003595257901575888</v>
       </c>
       <c r="O3" t="n">
-        <v>5.884269294775812e-05</v>
+        <v>0.003595257901575888</v>
       </c>
       <c r="P3" t="n">
-        <v>1.855395060678656</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.327079178993885, 2.383710942363426]</t>
+          <t>[0.5849211547224247, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.933527168546561e-09</v>
+        <v>0.0007242822124562398</v>
       </c>
       <c r="S3" t="n">
-        <v>7.933527168546561e-09</v>
+        <v>0.0007242822124562398</v>
       </c>
       <c r="T3" t="n">
-        <v>71.85820907670239</v>
+        <v>68.55341851941179</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[55.9477766267168, 87.76864152668799]</t>
+          <t>[51.97797822442962, 85.12885881439396]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.262368649842756e-12</v>
+        <v>1.146260864004489e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>9.262368649842756e-12</v>
+        <v>1.146260864004489e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>17.75151151151186</v>
+        <v>19.68278278278314</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.63343343343374</v>
+        <v>16.79265265265296</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.86958958958999</v>
+        <v>22.57291291291332</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003015369834116433</v>
+        <v>5.041353830681494e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003015369834116433</v>
+        <v>5.041353830681494e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.95104605748909</v>
+        <v>48.05446975097705</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[13.54589800067889, 80.3561941142993]</t>
+          <t>[25.736325869104377, 70.37261363284972]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.006916604739361842</v>
+        <v>8.055024727648963e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006916604739361842</v>
+        <v>8.055024727648963e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.276763380738194</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.44655270951926873, 2.1069740519571187]</t>
+          <t>[0.9119738433844251, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.003357242070449962</v>
+        <v>3.865077893294711e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003357242070449962</v>
+        <v>3.865077893294711e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>67.12865244331043</v>
+        <v>50.29398751127685</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.49818261804751, 85.75912226857335]</t>
+          <t>[36.33725551459189, 64.25071950796182]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.241173190422387e-09</v>
+        <v>4.229563144164672e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>4.241173190422387e-09</v>
+        <v>4.229563144164672e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>20.07131131131171</v>
+        <v>19.03499499499534</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.74290290290323</v>
+        <v>16.79265265265296</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.39971971972019</v>
+        <v>21.27733733733772</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.757202358065868e-07</v>
+        <v>7.515779848199511e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.757202358065868e-07</v>
+        <v>7.515779848199511e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>56.36302923896298</v>
+        <v>51.51727722559614</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[34.0475847010386, 78.67847377688736]</t>
+          <t>[22.597630241033954, 80.43692421015832]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.879386763802842e-06</v>
+        <v>0.0008183660366949397</v>
       </c>
       <c r="O5" t="n">
-        <v>6.879386763802842e-06</v>
+        <v>0.0008183660366949397</v>
       </c>
       <c r="P5" t="n">
-        <v>1.125815985971117</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.710710650361654, 1.540921321580579]</t>
+          <t>[0.40881586082750143, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.945440488926309e-06</v>
+        <v>0.001163537437558926</v>
       </c>
       <c r="S5" t="n">
-        <v>1.945440488926309e-06</v>
+        <v>0.001163537437558926</v>
       </c>
       <c r="T5" t="n">
-        <v>53.8219231233485</v>
+        <v>56.41016952052133</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[41.74961865100336, 65.89422759569365]</t>
+          <t>[41.29640233526513, 71.52393670577753]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.354583112345153e-11</v>
+        <v>1.752941125587881e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.354583112345153e-11</v>
+        <v>1.752941125587881e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>20.67647647647689</v>
+        <v>21.02818818818857</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.01227227227265</v>
+        <v>18.78584584584619</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.34068068068113</v>
+        <v>23.27053053053095</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002395113255240222</v>
+        <v>2.685054789841601e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002395113255240222</v>
+        <v>2.685054789841601e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.70574846659403</v>
+        <v>62.04136706918467</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.463472971194975, 70.94802396199309]</t>
+          <t>[36.13972486765172, 87.94300927071762]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0006862033827381708</v>
+        <v>1.647275997962439e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006862033827381708</v>
+        <v>1.647275997962439e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3459211130078854</v>
+        <v>0.3333421634439633</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.2830263651882685, 0.9748685912040393]</t>
+          <t>[-0.15723686954903648, 0.823921196436963]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2738528922746424</v>
+        <v>0.1779316048587827</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2738528922746424</v>
+        <v>0.1779316048587827</v>
       </c>
       <c r="T6" t="n">
-        <v>61.78061893473097</v>
+        <v>64.41509176924377</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.64195838042082, 75.91927948904113]</t>
+          <t>[49.659131806553034, 79.17105173193451]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.42630360247631e-11</v>
+        <v>2.495470496910457e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.42630360247631e-11</v>
+        <v>2.495470496910457e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>23.80316316316363</v>
+        <v>23.56950950950993</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.28164164164206</v>
+        <v>21.62614614614654</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.3246846846852</v>
+        <v>25.51287287287333</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01372822864456424</v>
+        <v>0.0002639137132334213</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01372822864456424</v>
+        <v>0.0002639137132334213</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.17297122491652</v>
+        <v>48.86102984716508</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[5.3612126429105444, 74.98472980692249]</t>
+          <t>[22.89073499574127, 74.83132469858889]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02468257573116173</v>
+        <v>0.0004461847330570201</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02468257573116173</v>
+        <v>0.0004461847330570201</v>
       </c>
       <c r="P7" t="n">
-        <v>0.761026448617347</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.006289474781961069, 1.515763422452733]</t>
+          <t>[-0.5220264069028078, 0.81134224687304]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0481995086708773</v>
+        <v>0.664185149874096</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0481995086708773</v>
+        <v>0.664185149874096</v>
       </c>
       <c r="T7" t="n">
-        <v>68.21346018143863</v>
+        <v>67.01686551762226</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.812368076018615, 86.61455228685865]</t>
+          <t>[51.724505839412245, 82.30922519583228]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.083882622017086e-09</v>
+        <v>2.230748918918835e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.083882622017086e-09</v>
+        <v>2.230748918918835e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>22.1389589589594</v>
+        <v>24.3169569569574</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.11313313313351</v>
+        <v>21.67597597597637</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.16478478478529</v>
+        <v>26.95793793793842</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.1900000000005</v>
+        <v>24.89000000000045</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.390835475514109e-05</v>
+        <v>1.694742203273147e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>3.390835475514109e-05</v>
+        <v>1.694742203273147e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>60.544723012738</v>
+        <v>62.10523568794719</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[33.48878594680572, 87.60066007867029]</t>
+          <t>[32.3067154507977, 91.90375592509668]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.652044630204522e-05</v>
+        <v>0.0001253815898296651</v>
       </c>
       <c r="O8" t="n">
-        <v>4.652044630204522e-05</v>
+        <v>0.0001253815898296651</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.06289474781961513</v>
+        <v>0.3962369112635775</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 0.49057903299300154]</t>
+          <t>[-0.14465791998511524, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8200027721842473</v>
+        <v>0.1470553657529845</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8200027721842473</v>
+        <v>0.1470553657529845</v>
       </c>
       <c r="T8" t="n">
-        <v>70.34010198734605</v>
+        <v>70.28560770712068</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.823748667592355, 86.85645530709974]</t>
+          <t>[53.960358705009725, 86.61085670923163]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.050648788085255e-11</v>
+        <v>3.710320939376288e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>5.050648788085255e-11</v>
+        <v>3.710320939376288e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2521521521521564</v>
+        <v>23.32036036036078</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.966786786786829</v>
+        <v>21.17767767767806</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.471091091091141</v>
+        <v>25.46304304304351</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005113176145942644</v>
+        <v>4.103979589498152e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005113176145942644</v>
+        <v>4.103979589498152e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>42.01804633859736</v>
+        <v>70.72834019962552</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[13.013081182515904, 71.02301149467881]</t>
+          <t>[44.82202847345293, 96.63465192579811]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.005485403458904692</v>
+        <v>1.720264561688722e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005485403458904692</v>
+        <v>1.720264561688722e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.006289474781961957</v>
+        <v>-0.3270526886620004</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.9497106920761942, 0.9371317425122703]</t>
+          <t>[-0.7421580242714629, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.9893461967252557</v>
+        <v>0.1195449865999039</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9893461967252557</v>
+        <v>0.1195449865999039</v>
       </c>
       <c r="T9" t="n">
-        <v>60.07968942501638</v>
+        <v>71.21061352943866</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.39384575135132, 77.76553309868143]</t>
+          <t>[56.73946929995843, 85.68175775891889]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.748364364395627e-08</v>
+        <v>6.872280522429719e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.748364364395627e-08</v>
+        <v>6.872280522429719e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02305305305305438</v>
+        <v>1.17741741741742</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.434904904904928</v>
+        <v>-0.3169969969970021</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.481011011011037</v>
+        <v>2.671831831831842</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00273958673833874</v>
+        <v>4.503267119504439e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00273958673833874</v>
+        <v>4.503267119504439e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>39.57930227497647</v>
+        <v>58.73458790253157</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[13.028414023389743, 66.1301905265632]</t>
+          <t>[27.57698621060039, 89.89218959446276]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.004360704400707016</v>
+        <v>0.0004362740358248018</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004360704400707016</v>
+        <v>0.0004362740358248018</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1006315965113851</v>
+        <v>-0.5786316799404627</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.9748685912040402, 0.77360539818127]</t>
+          <t>[-1.1069475616252324, -0.05031579825569299]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8177139491211576</v>
+        <v>0.03253779532548862</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8177139491211576</v>
+        <v>0.03253779532548862</v>
       </c>
       <c r="T10" t="n">
-        <v>58.63374618618094</v>
+        <v>68.37373870568445</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.98852568436061, 74.27896668800128]</t>
+          <t>[51.444961882531814, 85.30251552883708]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.578812636182647e-09</v>
+        <v>2.196132165011022e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.578812636182647e-09</v>
+        <v>2.196132165011022e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3688488488488559</v>
+        <v>2.083123123123134</v>
       </c>
       <c r="Y10" t="n">
-        <v>-2.835525525525541</v>
+        <v>0.1811411411411443</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.573223223223253</v>
+        <v>3.985105105105123</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002092995604887182</v>
+        <v>0.03350913618611562</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002092995604887182</v>
+        <v>0.03350913618611562</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>49.85618674659929</v>
+        <v>33.51077435269468</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[13.01827539729922, 86.69409809589936]</t>
+          <t>[1.9228839305689718, 65.09866477482039]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.009105247911430192</v>
+        <v>0.03809366274078041</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009105247911430192</v>
+        <v>0.03809366274078041</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5597632555945768</v>
+        <v>0.2201316173686543</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.1446579199851179, 1.2641844311742716]</t>
+          <t>[-1.1572633598809245, 1.597526594618233]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1164873415062786</v>
+        <v>0.749027599273036</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1164873415062786</v>
+        <v>0.749027599273036</v>
       </c>
       <c r="T11" t="n">
-        <v>66.45526671894621</v>
+        <v>71.13283723308828</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.490333355051945, 85.42020008284047]</t>
+          <t>[53.13886308608723, 89.12681138008934]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.3698832309409e-09</v>
+        <v>3.914766288914961e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>8.3698832309409e-09</v>
+        <v>3.914766288914961e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>20.97827827827843</v>
+        <v>21.8275075075076</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.39633633633646</v>
+        <v>16.86876876876884</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.56022022022039</v>
+        <v>26.78624624624636</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>7.938032116183713e-06</v>
+        <v>0.0002367488296236564</v>
       </c>
       <c r="I12" t="n">
-        <v>7.938032116183713e-06</v>
+        <v>0.0002367488296236564</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>63.39292191509194</v>
+        <v>50.25099539756989</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[33.271509215707, 93.51433461447688]</t>
+          <t>[19.89375500770737, 80.60823578743242]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001100540955591978</v>
+        <v>0.001720630710057014</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001100540955591978</v>
+        <v>0.001720630710057014</v>
       </c>
       <c r="P12" t="n">
-        <v>1.10065808684327</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5975001042863477, 1.6038160694001933]</t>
+          <t>[0.08176317216549833, 1.2390265320464255]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.451098680626544e-05</v>
+        <v>0.02621999693080679</v>
       </c>
       <c r="S12" t="n">
-        <v>6.451098680626544e-05</v>
+        <v>0.02621999693080679</v>
       </c>
       <c r="T12" t="n">
-        <v>63.1095702122918</v>
+        <v>69.10836359096923</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.06707939494248, 79.15206102964112]</t>
+          <t>[53.17526824346979, 85.04145893846868]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.458611257973644e-10</v>
+        <v>3.001066062324753e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>4.458611257973644e-10</v>
+        <v>3.001066062324753e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>18.99571571571585</v>
+        <v>20.24252252252261</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.1514714714716</v>
+        <v>18.15939939939948</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8399599599601</v>
+        <v>22.32564564564575</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001644482084868226</v>
+        <v>0.09713075231800539</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001644482084868226</v>
+        <v>0.09713075231800539</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>52.35891723489701</v>
+        <v>26.23053686924602</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[20.859409851788598, 83.85842461800543]</t>
+          <t>[-6.112605705104116, 58.57367944359616]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.001653218682322155</v>
+        <v>0.1093519846506072</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001653218682322155</v>
+        <v>0.1093519846506072</v>
       </c>
       <c r="P13" t="n">
-        <v>0.798763297309117</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.3270791789938876]</t>
+          <t>[-2.0692372032653497, 3.918342789162044]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.003879089212194708</v>
+        <v>0.5370791199925984</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003879089212194708</v>
+        <v>0.5370791199925984</v>
       </c>
       <c r="T13" t="n">
-        <v>71.47000319879676</v>
+        <v>68.94092642537505</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[55.36147189058266, 87.57853450701086]</t>
+          <t>[52.31960866227365, 85.56224418847646]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.55990775851933e-11</v>
+        <v>1.058595433534038e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>1.55990775851933e-11</v>
+        <v>1.058595433534038e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>20.1022622622624</v>
+        <v>19.29153153153161</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.16580580580593</v>
+        <v>8.51363363363367</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.03871871871887</v>
+        <v>30.06942942942956</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005958241113424134</v>
+        <v>0.0001955335420461557</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005958241113424134</v>
+        <v>0.0001955335420461557</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>40.40401807887242</v>
+        <v>54.77222456310579</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[10.187193580642486, 70.62084257710235]</t>
+          <t>[26.472483716760138, 83.07196540945145]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.009909126003685653</v>
+        <v>0.0003197396200991243</v>
       </c>
       <c r="O14" t="n">
-        <v>0.009909126003685653</v>
+        <v>0.0003197396200991243</v>
       </c>
       <c r="P14" t="n">
-        <v>1.213868632918579</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.39623691126357663, 2.0315003545735806]</t>
+          <t>[0.786184347745194, 2.069237203265348]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.004508791041906823</v>
+        <v>5.039655312777391e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.004508791041906823</v>
+        <v>5.039655312777391e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>60.69545425502734</v>
+        <v>68.87127548410108</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.00237401271508, 77.3885344973396]</t>
+          <t>[52.201675712725944, 85.54087525547621]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.387763847229053e-09</v>
+        <v>1.179660813477312e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>3.387763847229053e-09</v>
+        <v>1.179660813477312e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>18.58076076076089</v>
+        <v>17.4801201201202</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.58386386386397</v>
+        <v>15.17057057057064</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.57765765765781</v>
+        <v>19.78966966966975</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001057764007588169</v>
+        <v>0.000179371061848288</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001057764007588169</v>
+        <v>0.000179371061848288</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>48.12242628883713</v>
+        <v>57.50937921716231</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[20.285463842440194, 75.95938873523407]</t>
+          <t>[29.988842498616563, 85.02991593570806]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.001119699777549554</v>
+        <v>0.0001210436919680813</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001119699777549554</v>
+        <v>0.0001210436919680813</v>
       </c>
       <c r="P15" t="n">
-        <v>1.603816069400195</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.8490790955648082, 2.358553043235582]</t>
+          <t>[0.9371317425122703, 2.1950266989045817]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>9.655104085326549e-05</v>
+        <v>8.747355589644457e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>9.655104085326549e-05</v>
+        <v>8.747355589644457e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>65.67448013514081</v>
+        <v>69.23291808566425</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[48.87692241511013, 82.4720378551715]</t>
+          <t>[51.831297733578104, 86.6345384377504]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.249571888299442e-10</v>
+        <v>3.29820615263543e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>5.249571888299442e-10</v>
+        <v>3.29820615263543e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>17.15147147147159</v>
+        <v>16.98198198198205</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.3851051051052</v>
+        <v>14.71771771771778</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.91783783783798</v>
+        <v>19.24624624624633</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.03000000000016</v>
+        <v>22.6200000000001</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03308104246331245</v>
+        <v>0.003616020324235358</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03308104246331245</v>
+        <v>0.003616020324235358</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>31.06696496480972</v>
+        <v>42.07087233527243</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[2.1383153367736156, 59.995614592845826]</t>
+          <t>[8.76561265479031, 75.37613201575456]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.03589360906737094</v>
+        <v>0.01445553463443483</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03589360906737094</v>
+        <v>0.01445553463443483</v>
       </c>
       <c r="P16" t="n">
-        <v>1.842816111114733</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 3.1887637144545042]</t>
+          <t>[1.6918687163476553, 3.025237370123505]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.008383539122228001</v>
+        <v>6.643740224632211e-09</v>
       </c>
       <c r="S16" t="n">
-        <v>0.008383539122228001</v>
+        <v>6.643740224632211e-09</v>
       </c>
       <c r="T16" t="n">
-        <v>57.33576729033228</v>
+        <v>65.1621635854535</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[41.26160938020128, 73.40992520046328]</t>
+          <t>[48.27924825752569, 82.0450789133813]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.436541217207491e-09</v>
+        <v>7.372813470851725e-10</v>
       </c>
       <c r="W16" t="n">
-        <v>5.436541217207491e-09</v>
+        <v>7.372813470851725e-10</v>
       </c>
       <c r="X16" t="n">
-        <v>16.27545545545557</v>
+        <v>14.12900900900907</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.34210210210219</v>
+        <v>11.72888888888894</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.20880880880896</v>
+        <v>16.5291291291292</v>
       </c>
     </row>
   </sheetData>
